--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/45.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/45.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3844186028770693</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.606499678738128</v>
+        <v>-1.604507757540122</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06259334552736402</v>
+        <v>0.06322767523324821</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1851556901462429</v>
+        <v>-0.1861441741544198</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3817385208897195</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.5405128621254</v>
+        <v>-1.539086800801502</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08825930131929305</v>
+        <v>0.08912815987425102</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1867202651528158</v>
+        <v>-0.1875057006943449</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3958256888879644</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.645636877179709</v>
+        <v>-1.645563685290568</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1005901671155626</v>
+        <v>0.1015660589707691</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1838917527918385</v>
+        <v>-0.1850014362723555</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.4293279288516548</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.693498076601099</v>
+        <v>-1.693195864929809</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1433594146795449</v>
+        <v>0.1444344697393933</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.214999092686104</v>
+        <v>-0.2159639664074613</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.4793554450975881</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.781301585244615</v>
+        <v>-1.781235476441521</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2307898807913129</v>
+        <v>0.2326157429720217</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2634930477942569</v>
+        <v>-0.2650733629920428</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.5345502065141668</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.709211509489044</v>
+        <v>-1.708655093729664</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3054267194851489</v>
+        <v>0.30704953319921</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2751187530241838</v>
+        <v>-0.2761292733000588</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.5803974036753857</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.539088374820623</v>
+        <v>-1.539256794866602</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3752832621075948</v>
+        <v>0.3768557072097741</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2775789449107767</v>
+        <v>-0.2789987101581899</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.6050311269695364</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.181897789642979</v>
+        <v>-1.183344313215454</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4046560329301869</v>
+        <v>0.4063402333899787</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2739492568170573</v>
+        <v>-0.2750904206800003</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.6028543807108805</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7827934362937797</v>
+        <v>-0.7854267702837159</v>
       </c>
       <c r="F10" t="n">
-        <v>0.442660724613992</v>
+        <v>0.444990272913517</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2340006515184459</v>
+        <v>-0.2355164319322584</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.5755908835188882</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2562777441422145</v>
+        <v>-0.2592620843962006</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4123451163377407</v>
+        <v>0.4156631486454426</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1760326753191842</v>
+        <v>-0.1778302051557095</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.5284542576305834</v>
       </c>
       <c r="E12" t="n">
-        <v>0.315949037311044</v>
+        <v>0.3126451711754339</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2850541899981541</v>
+        <v>0.2888444280422462</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1215149490338135</v>
+        <v>-0.1238004247979421</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.4664775973620442</v>
       </c>
       <c r="E13" t="n">
-        <v>0.899417463328632</v>
+        <v>0.8954115846649219</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08872206294095544</v>
+        <v>0.09239424955094995</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.008235940912045624</v>
+        <v>-0.01044901179659439</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.3940368261104666</v>
       </c>
       <c r="E14" t="n">
-        <v>1.60550984899115</v>
+        <v>1.601259997363638</v>
       </c>
       <c r="F14" t="n">
-        <v>0.006001062040119098</v>
+        <v>0.01115125260501495</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08948388819566498</v>
+        <v>0.08758876917361895</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.3149226999425293</v>
       </c>
       <c r="E15" t="n">
-        <v>2.270632090945333</v>
+        <v>2.267800430546113</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1372047716349388</v>
+        <v>-0.1314249734215227</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2066208171837409</v>
+        <v>0.2044628369684376</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.2330344320251785</v>
       </c>
       <c r="E16" t="n">
-        <v>2.871274639595433</v>
+        <v>2.868472885559517</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2647931875884512</v>
+        <v>-0.2573307629343647</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3107154237327193</v>
+        <v>0.3080931078766323</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.1509690329177973</v>
       </c>
       <c r="E17" t="n">
-        <v>3.408013585939846</v>
+        <v>3.404914342290005</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3783319088652338</v>
+        <v>-0.3686579873457197</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3959926316865479</v>
+        <v>0.3932805967405468</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.06993155099557631</v>
       </c>
       <c r="E18" t="n">
-        <v>3.881461223416758</v>
+        <v>3.877815795131826</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5587050560515647</v>
+        <v>-0.5478443241145901</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4931111854899217</v>
+        <v>0.4894972375874153</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.008216242164924994</v>
       </c>
       <c r="E19" t="n">
-        <v>4.257108756810774</v>
+        <v>4.253505827042117</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7611003047640137</v>
+        <v>-0.7493612701573532</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6162262391006975</v>
+        <v>0.6116726017827746</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.08321027312772536</v>
       </c>
       <c r="E20" t="n">
-        <v>4.532905239206838</v>
+        <v>4.528570390546776</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.9701686075412169</v>
+        <v>-0.9571018878057392</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7226173395476536</v>
+        <v>0.7183816540922335</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.1582491771273489</v>
       </c>
       <c r="E21" t="n">
-        <v>4.742904574294291</v>
+        <v>4.737088573641085</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.091704919973328</v>
+        <v>-1.077377410921689</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8649732028972091</v>
+        <v>0.8614206417404335</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.238462385477398</v>
       </c>
       <c r="E22" t="n">
-        <v>4.889006603152541</v>
+        <v>4.883108753505028</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.258831122234793</v>
+        <v>-1.244276167420125</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9667870557394228</v>
+        <v>0.9627591408080144</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.3269867428861123</v>
       </c>
       <c r="E23" t="n">
-        <v>4.935040366374102</v>
+        <v>4.928368099318908</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.510258640594879</v>
+        <v>-1.496097977570098</v>
       </c>
       <c r="G23" t="n">
-        <v>1.020212412754611</v>
+        <v>1.015825621463546</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.4233880614730706</v>
       </c>
       <c r="E24" t="n">
-        <v>4.985028065628369</v>
+        <v>4.977540456668342</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.717962268793915</v>
+        <v>-1.704515423440643</v>
       </c>
       <c r="G24" t="n">
-        <v>1.117541885120239</v>
+        <v>1.113277867320635</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.5244151660311615</v>
       </c>
       <c r="E25" t="n">
-        <v>4.951627379874369</v>
+        <v>4.943171749154741</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.880906302250083</v>
+        <v>-1.866662216211873</v>
       </c>
       <c r="G25" t="n">
-        <v>1.164499597566002</v>
+        <v>1.1603095586651</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.6246564219858347</v>
       </c>
       <c r="E26" t="n">
-        <v>4.940070931485779</v>
+        <v>4.931596412536695</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.943002930604517</v>
+        <v>-1.92850936253558</v>
       </c>
       <c r="G26" t="n">
-        <v>1.193869220350352</v>
+        <v>1.189430486428284</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.7183204985661414</v>
       </c>
       <c r="E27" t="n">
-        <v>4.845126098088921</v>
+        <v>4.836716113923812</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.030296457052732</v>
+        <v>-2.015726549056412</v>
       </c>
       <c r="G27" t="n">
-        <v>1.213832504865808</v>
+        <v>1.209568487066205</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.799966138294283</v>
       </c>
       <c r="E28" t="n">
-        <v>4.727578350110186</v>
+        <v>4.719217160537837</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.095619037596271</v>
+        <v>-2.081400922873561</v>
       </c>
       <c r="G28" t="n">
-        <v>1.201940790404382</v>
+        <v>1.197837322555151</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8652727880471817</v>
       </c>
       <c r="E29" t="n">
-        <v>4.60451209109217</v>
+        <v>4.596042294200451</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.187847900999324</v>
+        <v>-2.175424168074898</v>
       </c>
       <c r="G29" t="n">
-        <v>1.166662299838669</v>
+        <v>1.162900394138761</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9113950541971418</v>
       </c>
       <c r="E30" t="n">
-        <v>4.500066478279142</v>
+        <v>4.491500666221024</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.190025556453643</v>
+        <v>-2.17812597189661</v>
       </c>
       <c r="G30" t="n">
-        <v>1.120283826429544</v>
+        <v>1.115997772362243</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9369009882099572</v>
       </c>
       <c r="E31" t="n">
-        <v>4.31160916888581</v>
+        <v>4.303817774235372</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.153101428896611</v>
+        <v>-2.142621609586991</v>
       </c>
       <c r="G31" t="n">
-        <v>1.053576896068821</v>
+        <v>1.049695364915694</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9419095948003157</v>
       </c>
       <c r="E32" t="n">
-        <v>4.124700694307839</v>
+        <v>4.117557795535377</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.070910872439653</v>
+        <v>-2.060533364372918</v>
       </c>
       <c r="G32" t="n">
-        <v>1.026135446708065</v>
+        <v>1.022441223830373</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.9269293450402559</v>
       </c>
       <c r="E33" t="n">
-        <v>3.908312415607027</v>
+        <v>3.900993226692979</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.013939250344175</v>
+        <v>-2.004469164300869</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9436725849431222</v>
+        <v>0.9403466825398139</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8936881458911777</v>
       </c>
       <c r="E34" t="n">
-        <v>3.693088911055977</v>
+        <v>3.686188411228195</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.914754796444094</v>
+        <v>-1.904918750955086</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8528784399691347</v>
+        <v>0.8493463410609359</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8440580514904981</v>
       </c>
       <c r="E35" t="n">
-        <v>3.454853246951512</v>
+        <v>3.447427024737215</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.851106972245619</v>
+        <v>-1.841198521877031</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7827401479239761</v>
+        <v>0.7793874871956056</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7804052503660879</v>
       </c>
       <c r="E36" t="n">
-        <v>3.220935117296774</v>
+        <v>3.213419175992563</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.768777902105986</v>
+        <v>-1.759044167859863</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7293541413868205</v>
+        <v>0.726440631993293</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7054455260083262</v>
       </c>
       <c r="E37" t="n">
-        <v>3.035534553037008</v>
+        <v>3.028010741637191</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.694159164632045</v>
+        <v>-1.683980769984154</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6684175651247858</v>
+        <v>0.6652286023850306</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6224264103370154</v>
       </c>
       <c r="E38" t="n">
-        <v>2.800579144781334</v>
+        <v>2.793093109840427</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.625539801038942</v>
+        <v>-1.615659683014537</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5883598045771902</v>
+        <v>0.5849489051413316</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5357612701103676</v>
       </c>
       <c r="E39" t="n">
-        <v>2.552298090644727</v>
+        <v>2.544585396950354</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.57468717827752</v>
+        <v>-1.564827522501692</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5302564627334966</v>
+        <v>0.5275475758257381</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4493731873905205</v>
       </c>
       <c r="E40" t="n">
-        <v>2.305943635912592</v>
+        <v>2.298734628337035</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.503576142415397</v>
+        <v>-1.49461289052915</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5029897294952048</v>
+        <v>0.5003831538303308</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3665680255613221</v>
       </c>
       <c r="E41" t="n">
-        <v>2.104251973747365</v>
+        <v>2.096860379953737</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.47960619222667</v>
+        <v>-1.47121981834838</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4300481093950096</v>
+        <v>0.4268685907699822</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2895857210870023</v>
       </c>
       <c r="E42" t="n">
-        <v>1.89894478966051</v>
+        <v>1.892226876050798</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.44397984343515</v>
+        <v>-1.435435280635169</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4134957243154115</v>
+        <v>0.4109253510903275</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2193134134335704</v>
       </c>
       <c r="E43" t="n">
-        <v>1.753883187441438</v>
+        <v>1.747502113923685</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.409100366716687</v>
+        <v>-1.400824961186449</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3680065717098217</v>
+        <v>0.3654110141787968</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1565594745738535</v>
       </c>
       <c r="E44" t="n">
-        <v>1.518683806221962</v>
+        <v>1.512201995480446</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.368593771639575</v>
+        <v>-1.360611133665898</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3149920336852932</v>
+        <v>0.3124499928043926</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1011914777671131</v>
       </c>
       <c r="E45" t="n">
-        <v>1.320275547943767</v>
+        <v>1.313630039213636</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.313556619044175</v>
+        <v>-1.306109934581301</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2979060561235742</v>
+        <v>0.2956473386845078</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.0528618967865775</v>
       </c>
       <c r="E46" t="n">
-        <v>1.161017867269685</v>
+        <v>1.154427449208799</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.269243258722197</v>
+        <v>-1.261312563379523</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2751630538399006</v>
+        <v>0.2730286839114169</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.01085898307742462</v>
       </c>
       <c r="E47" t="n">
-        <v>1.014024943588778</v>
+        <v>1.008010616526288</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.191045988775979</v>
+        <v>-1.183171171112111</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2455463100535069</v>
+        <v>0.2439691428939636</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.02557106045278066</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8657916928402855</v>
+        <v>0.8597726437204317</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.172626030008957</v>
+        <v>-1.164873198826991</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2059093605409129</v>
+        <v>0.2046627373968428</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.05669218734535701</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7353417101242484</v>
+        <v>0.7298672716203646</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.09134446959455</v>
+        <v>-1.08340511714671</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1659733473952719</v>
+        <v>0.1649533830046691</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.0829183995187659</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6031193818776267</v>
+        <v>0.597253012612539</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.033847912122118</v>
+        <v>-1.026001426802434</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1231867856209553</v>
+        <v>0.1222927427600565</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1051616865523374</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4848302708927587</v>
+        <v>0.4790567687558278</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9719755814924701</v>
+        <v>-0.9644415389683644</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1030173046006083</v>
+        <v>0.1021075215484965</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1238594595686185</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3667457823936598</v>
+        <v>0.3608558028417527</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.945382528438095</v>
+        <v>-0.9378988545258709</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06075331717456352</v>
+        <v>0.05991593900203156</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1398322662519694</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2073007934441428</v>
+        <v>0.2005891759109166</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9260134361409293</v>
+        <v>-0.919059419663023</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0233908252922491</v>
+        <v>0.02260853778896265</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.153300597704898</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1044716982686901</v>
+        <v>0.09799933164190169</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.879113962402654</v>
+        <v>-0.8718545862152153</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01258023368683552</v>
+        <v>-0.01401259108721915</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1647835515266457</v>
       </c>
       <c r="E55" t="n">
-        <v>0.009758245682663839</v>
+        <v>0.00362744120519766</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8521746251415928</v>
+        <v>-0.8447184965639915</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.0409031337555201</v>
+        <v>-0.042049019675827</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1749617236711119</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.08752872816668907</v>
+        <v>-0.09391137570356337</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.850238581622393</v>
+        <v>-0.8428218035228241</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.04717087789653944</v>
+        <v>-0.04786187229079044</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1843269170164085</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2218445018446407</v>
+        <v>-0.2280004906280476</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8380722008242992</v>
+        <v>-0.8306184332753799</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08824018480951698</v>
+        <v>-0.08953245450810485</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1935436128142262</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3097408776163137</v>
+        <v>-0.3158039992715639</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7882348203961163</v>
+        <v>-0.7794376275271667</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1200400931171548</v>
+        <v>-0.1215401333397543</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2026926036816151</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4309608122050436</v>
+        <v>-0.43694680692335</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.841638141143606</v>
+        <v>-0.8332667204469683</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.147209237169926</v>
+        <v>-0.1485959480157918</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2120884702660055</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4912677808185581</v>
+        <v>-0.4973309024738083</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8137339301611874</v>
+        <v>-0.8047572991124096</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1653623996958868</v>
+        <v>-0.166797905134513</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2213190822939154</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5907048647876078</v>
+        <v>-0.5971315848598785</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.83305107982735</v>
+        <v>-0.8241885651648666</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.197960335698024</v>
+        <v>-0.1997311072094873</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2303470640148657</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6788499355804463</v>
+        <v>-0.6857693236376841</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.87403853774602</v>
+        <v>-0.8655144371946161</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2225968829846224</v>
+        <v>-0.2243519143048727</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2389210486941648</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7626853420191635</v>
+        <v>-0.7694237178774518</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8753662228748371</v>
+        <v>-0.8667925407211123</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2359004925978558</v>
+        <v>-0.2379152370731207</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.246969810884127</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8123975879272031</v>
+        <v>-0.8193972509596272</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.883667599720577</v>
+        <v>-0.8749483207981318</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2630979689948104</v>
+        <v>-0.2651253056230456</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2545435694249303</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.890187973930565</v>
+        <v>-0.896605249888108</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8858295149836835</v>
+        <v>-0.8773219416330532</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2746811757084622</v>
+        <v>-0.2766581437248158</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2619411506822736</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.917805713432907</v>
+        <v>-0.924551172377241</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.896974357372053</v>
+        <v>-0.8883660467976595</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2888253115324702</v>
+        <v>-0.2913311499735808</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2691047319995409</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9874104129959447</v>
+        <v>-0.9944242422004606</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8722268417374029</v>
+        <v>-0.8635626534842032</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.282642564424001</v>
+        <v>-0.2847013814346623</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.276232236219586</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.008138670804353</v>
+        <v>-1.015054910823349</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9273434822984284</v>
+        <v>-0.9187367457431563</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3033991545765932</v>
+        <v>-0.3061174855990795</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2832620491858739</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.020822903893355</v>
+        <v>-1.02748493982426</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9087330672177297</v>
+        <v>-0.8995329254537272</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3209998363909775</v>
+        <v>-0.3233514209582007</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2901066188077659</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.024895678369721</v>
+        <v>-1.031076851459068</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9425799873926191</v>
+        <v>-0.9336285406497821</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3205386487884364</v>
+        <v>-0.3230429132104258</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2965342422193898</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9910212128602084</v>
+        <v>-0.9972606246570443</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9869374202499938</v>
+        <v>-0.9776617255681689</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3169624773448412</v>
+        <v>-0.3193565604283396</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3021374170401542</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9276000474152004</v>
+        <v>-0.9336600210322081</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.044445782865836</v>
+        <v>-1.0355683150217</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2903159076403419</v>
+        <v>-0.2923542624024263</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3065536410371947</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8582448298828889</v>
+        <v>-0.8638845403945092</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.08125107197921</v>
+        <v>-1.072965435324683</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2944162274513302</v>
+        <v>-0.2967127213493079</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3092570600930749</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.7994811870178097</v>
+        <v>-0.8050547887263354</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.12705581541862</v>
+        <v>-1.118655275368239</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.291483829828347</v>
+        <v>-0.2936370879862863</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3100738768096468</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6770067591894031</v>
+        <v>-0.6815619705264473</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.167936240037042</v>
+        <v>-1.160033090028991</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2593281931992952</v>
+        <v>-0.2619678232657165</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3085194835289141</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5331209492539434</v>
+        <v>-0.5379468918798513</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.231096118307914</v>
+        <v>-1.223033992368612</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2295556215198927</v>
+        <v>-0.2319717408710893</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3040919810964948</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4125337703519764</v>
+        <v>-0.4173597129778843</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.230343737167932</v>
+        <v>-1.222294990391161</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1921301688727263</v>
+        <v>-0.1943227775086981</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2962814122007137</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2779598575381315</v>
+        <v>-0.282500902703084</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.263379250485791</v>
+        <v>-1.25545170318136</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.1710650709723592</v>
+        <v>-0.1732466614744819</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2849955234563017</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1303530663999169</v>
+        <v>-0.134735135633618</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.28568074040594</v>
+        <v>-1.277680788221929</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1348358728573812</v>
+        <v>-0.1366428468086344</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2707614446940997</v>
       </c>
       <c r="E80" t="n">
-        <v>0.01078293213063059</v>
+        <v>0.006350494285047851</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.272285837683671</v>
+        <v>-1.264258340165037</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1083640192753463</v>
+        <v>-0.109886095765644</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2541906223291893</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1627607743686972</v>
+        <v>0.1589547961333921</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.311637102725749</v>
+        <v>-1.304191992281996</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.08899728800686262</v>
+        <v>-0.0910277726733405</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2362931283754336</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2736866239041206</v>
+        <v>0.2699310142806971</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.314703291974042</v>
+        <v>-1.307990100421695</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.01777134874888519</v>
+        <v>-0.01886056998082527</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2180767634978935</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4347308162808791</v>
+        <v>0.4310932580915532</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.293682266609072</v>
+        <v>-1.286880929985932</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.004782542959911915</v>
+        <v>-0.006273139067783665</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2003095986065758</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5671735072044829</v>
+        <v>0.5636130759521008</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.294004153519378</v>
+        <v>-1.28784737772641</v>
       </c>
       <c r="G84" t="n">
-        <v>0.07508161323576368</v>
+        <v>0.07507689117839979</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1840444906778911</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7054762713166891</v>
+        <v>0.7019929670012507</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.241606630990399</v>
+        <v>-1.235745770792236</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1145564387788636</v>
+        <v>0.1149153151385202</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1700062862756317</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8920054072864272</v>
+        <v>0.8882482236438825</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.201574602678359</v>
+        <v>-1.196172569054055</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1584605541293037</v>
+        <v>0.1590177568982442</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1587083363769651</v>
       </c>
       <c r="E87" t="n">
-        <v>1.01447511305747</v>
+        <v>1.011155506730647</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.067034531275622</v>
+        <v>-1.062035446546371</v>
       </c>
       <c r="G87" t="n">
-        <v>0.18811664839373</v>
+        <v>0.1893585494804362</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.15001962059373</v>
       </c>
       <c r="E88" t="n">
-        <v>1.149215871898173</v>
+        <v>1.146401525709287</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9521232653250652</v>
+        <v>-0.9474948620988805</v>
       </c>
       <c r="G88" t="n">
-        <v>0.219279078957241</v>
+        <v>0.2206815299943199</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1434973337506404</v>
       </c>
       <c r="E89" t="n">
-        <v>1.253691391074506</v>
+        <v>1.250927413497502</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8667350890231849</v>
+        <v>-0.8625112087111744</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2312243100687919</v>
+        <v>0.2326928699089655</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.138044356232406</v>
       </c>
       <c r="E90" t="n">
-        <v>1.330813605960876</v>
+        <v>1.328517112062898</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7502663311521011</v>
+        <v>-0.7466586793260799</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1982124070377526</v>
+        <v>0.1992717219063879</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1322137687136367</v>
       </c>
       <c r="E91" t="n">
-        <v>1.32174253376482</v>
+        <v>1.3195168707273</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6098150309393194</v>
+        <v>-0.6061947869603278</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1930936968552827</v>
+        <v>0.1945433684660007</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1245423331869267</v>
       </c>
       <c r="E92" t="n">
-        <v>1.307640896457087</v>
+        <v>1.305920493557505</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4779751893391738</v>
+        <v>-0.4747531721978713</v>
       </c>
       <c r="G92" t="n">
-        <v>0.168361134402285</v>
+        <v>0.1693323042001276</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1149974281165862</v>
       </c>
       <c r="E93" t="n">
-        <v>1.276034592501369</v>
+        <v>1.275036664378464</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3422742788344776</v>
+        <v>-0.339313548867311</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1611521268267279</v>
+        <v>0.1623499553780377</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1037920320153441</v>
       </c>
       <c r="E94" t="n">
-        <v>1.195635269804451</v>
+        <v>1.194116341352396</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1922104438479126</v>
+        <v>-0.1899580224853313</v>
       </c>
       <c r="G94" t="n">
-        <v>0.142967483918341</v>
+        <v>0.143966986060367</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.09239739408506434</v>
       </c>
       <c r="E95" t="n">
-        <v>1.162725678016296</v>
+        <v>1.161419242145617</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09848075321269925</v>
+        <v>-0.09732542317766456</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1240430520229429</v>
+        <v>0.125771325018131</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.08240288620264827</v>
       </c>
       <c r="E96" t="n">
-        <v>1.121997933252641</v>
+        <v>1.12113694479329</v>
       </c>
       <c r="F96" t="n">
-        <v>0.008127561872996326</v>
+        <v>0.009315946309578346</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05619023574191283</v>
+        <v>0.05736130596816054</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.07559698697850083</v>
       </c>
       <c r="E97" t="n">
-        <v>1.027153837079547</v>
+        <v>1.025908787954598</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06487567325325003</v>
+        <v>0.06581221463042393</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03139786056230569</v>
+        <v>0.03244930533533456</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.07469337061608652</v>
       </c>
       <c r="E98" t="n">
-        <v>1.001925458603339</v>
+        <v>1.001457974924313</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09996213348616366</v>
+        <v>0.1001667559719327</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.008478339856725929</v>
+        <v>-0.007135701546256442</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.0808501263743875</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9774164068655664</v>
+        <v>0.9772448387813446</v>
       </c>
       <c r="F99" t="n">
-        <v>0.164602376740619</v>
+        <v>0.1655074377353669</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.02654178329277262</v>
+        <v>-0.02504803914665827</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.09763129496137228</v>
       </c>
       <c r="E100" t="n">
-        <v>0.887089745570605</v>
+        <v>0.8868914191613212</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1534520252853249</v>
+        <v>0.154300421591706</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.03726242752795161</v>
+        <v>-0.0358757166820857</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1229665185748235</v>
       </c>
       <c r="E101" t="n">
-        <v>0.805930171638099</v>
+        <v>0.8054075972898272</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1417728034052738</v>
+        <v>0.1423725046904894</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06591744563123063</v>
+        <v>-0.06473063521376991</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1619672892423501</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6850313369501145</v>
+        <v>0.6834352815611157</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1374536949364247</v>
+        <v>0.1374442508216969</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08365191907092548</v>
+        <v>-0.08250918118886118</v>
       </c>
     </row>
   </sheetData>
